--- a/src/main/resources/static/excel/资产设备导入模板.xlsx
+++ b/src/main/resources/static/excel/资产设备导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>设备名称</t>
     </r>
     <r>
@@ -157,6 +162,15 @@
   </si>
   <si>
     <t>责任人</t>
+  </si>
+  <si>
+    <t>mac地址</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>部门</t>
   </si>
 </sst>
 </file>
@@ -1184,33 +1198,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.4444444444444" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.4416666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9.66666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.225" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.8888888888889" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.8916666666667" style="2" customWidth="1"/>
     <col min="9" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="11.8888888888889" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.11111111111111" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.8916666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.10833333333333" style="2" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
     <col min="15" max="15" width="9.66666666666667" style="1"/>
-    <col min="16" max="16" width="11.8888888888889" style="2"/>
-    <col min="17" max="17" width="19.4444444444444" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.8916666666667" style="2"/>
+    <col min="17" max="17" width="19.4416666666667" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:18">
+    <row r="1" ht="16.5" spans="1:21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1264,6 +1278,15 @@
       </c>
       <c r="R1" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1311,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1305,7 +1328,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
